--- a/아카데미 수업내용 5월/게임 기획서/김혜령(5월).xlsx
+++ b/아카데미 수업내용 5월/게임 기획서/김혜령(5월).xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\아카데미 수업내용 5월\게임 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C555CDFE-6EC3-4D0C-8E71-AEE571E33735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ED9DA5-2CC1-4079-B1CC-DC6C840B2576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="5925" windowWidth="21945" windowHeight="13050" activeTab="1" xr2:uid="{94D2E2B2-CE9B-4D47-BAEA-1760D6800868}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{94D2E2B2-CE9B-4D47-BAEA-1760D6800868}"/>
   </bookViews>
   <sheets>
     <sheet name="홍콩메서커 슬로우모션 매커니즘(5.02)" sheetId="2" r:id="rId1"/>
     <sheet name="홍콩메서커 슬로우모션 기획서(5.03-5.08)" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="플밍반 협업 게임 준비페이지(5.21~7.11)" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="340">
   <si>
     <t>&lt; 슬로우 모션의 플로우 &gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2013,6 +2013,890 @@
   </si>
   <si>
     <t>홍콩 메서커 슬로우 모션 기획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협업 프로젝트 게임 기획준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 무엇을 만들고 싶은가? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 왜 만들고 싶은가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포상이자 올스타전, 추억을 위한 헌사같은 느낌으로만 존재해 왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스러쉬가 따로 빠져서 진행되는 게임이 없었으니, 만들고싶다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스러쉬의 좋은 레퍼런스 - 컵헤드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/KAYOx7QaFoM?si=K_n1uOmM3jHx9s1u</t>
+  </si>
+  <si>
+    <t>3. 어떤 방향성으로 만들것 인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 러쉬를 만들고 싶다. 보스와 PC, 1대1의 압도적인 긴장감이 느껴지는 보스 러쉬.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이제껏, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>보스 러쉬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>라는 장르는, 어드벤처 플랫포머 게임의 엔드컨텐츠,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백뷰의 시점으로 액션성을 강조, 잘 보이게 하고, 스타일리쉬 하고, 분위기는 캐주얼 하면서도,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/nqI89Jyv3q0?si=eh4YgUEBfw5Aly6x</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>캐주얼, 백뷰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 보스 러쉬의 레퍼런스 - 별의 커비: 디스커버리 의 보스 러쉬 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐주얼 적인 게임들 보다는 더 어려운 난이도를 가진 보스 러쉬를 만들겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>어려운 난이도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>란 무엇인가?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">내가 생각하는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>어려운 난이도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">는, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>패턴, 기믹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 같은 것들이 어려운 것이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 처음 하는 사람이라면, 바로 반응하기 어렵고, 힘들고, 외우거나, 몇번 리트라이를</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하며 보스를 배워나가가는 것이 어려운 난이도라고 생각한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼, 이런 어려운 난이도의 매력은 무엇일까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저에게 도전욕구를 불러일으킨다. 유저는 보스의 패턴, 기믹을 외우고,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">그에 따라 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>클리어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>라는 보상과 쾌감이 눈앞에 조금씩 다가오게 된다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또한, 강렬한 연출과 함께하는 보스패턴, 기믹은- 유저에게 시청각적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">즐거움을 줄 것이다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이러한 이유로, 나는, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>연출이 가미된 어려운 패턴, 기믹이 존재하는 어려운 난이도의 보스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 만들어야겠다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">왜 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>백뷰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 시점인가?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사이드뷰의 시점으로는 4방향- 상화좌우 의 움직임과 점프밖에 보여줄 수 없다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광활한 맵이나, 그러한 맵으로 이루어질 기믹 또한 보여주기 어렵다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">백뷰로 잡은 이유는 위에 서술했든 어려운 패턴과 기믹이 존재하는 어려운 보스의 공격을 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">유저가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회피할 수 있도록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 하기 위함인데, 공격의 범위를 보여주고, 유저가 8방향으로 (상,하,좌,우,상좌,상우,후좌,후우)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동하기에 4방향 이동보단, 더욱 액션성을 강조해 줄 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이러한 이유로, 백뷰 시점의 게임으로 만들어야겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스타일리쉬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>란 무엇일까?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">화려한 액션, 과격한 이동, 시원한 타격감… 이런것들이 합쳐져 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스타일리쉬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>라고 불리어 지는 것 이라고 생각한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만, 무기를 그냥 시원하게, 이동을 구르기로 간지나게하고,,…. 이런게임은 많다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">다른게임과 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>차별화를 하고싶다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 어떻게 차별화를 할 수 있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">많은 게임에서 시도하지 않았던, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전투중 무기교체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>라는 것을 넣으면 어떨까?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">많이 시도 안한 이유가 있을 수도 있지만… </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>매력적인 무기들</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">을 유저에게 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모두 보여주고 싶으니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">그리고, 그것으로 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스타일리쉬하며 전략적인 행동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이 가능하도록 만들어주고 싶다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이 무기 교체는, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>보스의 패턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">과, 마치 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실과 바늘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 같은 관계라고 생각한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">우리의 무기 교체는, 강제한다고 해도, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>불쾌한 경험으로 남게 할 수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 없다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불쾌한 경험이란, 그 강제가 스트레스로 직결되는 상황이라고 생각한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ex) 딜 잘 넣고 있었는데 무기 b로 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">시간내로 안바꿔서 죽었어 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">…이런 너무나도 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>강력한 제제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">인데, 연출도 뭣도 없어서, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>알 수 없는 죽음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에 가까워질수록, 스트레스 &gt; 불쾌함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으로 직결된다고 생각한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서, 보스 패턴과의 접점을 적절히 만들어서, 어떤 특정 종류의 무기로의 교체를 강요하더라도,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">그것이 불쾌함이 아닌, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최소한,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 게임의 흐름, 메커니즘으로 생각되거나, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최고의 상황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은, 유저가 그것을 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>재밌는 요소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>라고 느끼게 하는 것 이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 근접기술을 사용할 수 있는 무기를 사용하고 있다고 가정하면, 근접무기로는 피하기 힘든 공격을 하는 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-- 약하든, 강하든, 그건 나중문제.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼, 어떻게, 보스 패턴과 접점을 만들 수 있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강력한 기믹으로 생각을 하자면, 바닥에는 즉사하는 용암이 깔린 상황이고, 공중으로 도망 갈 수 있는 무기가 있으니,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 무기를 사용해 그 상황이 끝나기를 기다리며, 각이 보인다면 그 무기로도 공격을(짤딜을) 넣는 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호막 같은 것을 생각할 수도 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스에게 '약점'이 있고, 보스가 약점을 다른 신체 부위, 또는 방어구 같은 것으로 가리고 있다고 하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 유저는 그것을 벗겨낼 수 있는 무기로, 그것을 벗겨내게 무기를 스위칭 한 후, 딜이 강력한 무기로 제 스위칭을 하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이를 하게 될 것 이다. (다른 것은 대미지를 줄 수 없으므로.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴 이외의 상황.. 미친척하고 패턴 파훼때를 제외하고 한가지의 무기를 쓰는 유저… </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이런것은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>불가형력적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 일 이라고 생각한다. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>우리가 모든 변수를 전부 제어 할 수는 없다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 기믹의 레퍼런스 - 로스트 아크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/a4tjTWK2WLY?si=o_mx2nVDKkAnWFeF</t>
+  </si>
+  <si>
+    <t>보스 기믹의 레퍼런스 2 - 메이플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/ff5DWJy9fLA?si=9Gf2YxFiJ7z82-eH&amp;t=126</t>
+  </si>
+  <si>
+    <t>4. 나의 결론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기를 교체하는 스타일리쉬한 전투로 보스의 강력한 패턴을 파훼하는 쾌감이 있는 보스러쉬 전투액션 백뷰 3D 게임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2020,7 +2904,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2058,6 +2942,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2355,12 +3248,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2508,20 +3404,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2547,33 +3431,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2583,9 +3440,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6541,7 +7441,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A2:Z349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B325" sqref="B325"/>
     </sheetView>
   </sheetViews>
@@ -6777,7 +7677,7 @@
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="59" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6817,7 +7717,7 @@
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C51" s="72" t="s">
+      <c r="C51" s="59" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6827,7 +7727,7 @@
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C53" s="72" t="s">
+      <c r="C53" s="59" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7012,27 +7912,27 @@
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="72" t="s">
+      <c r="C96" s="59" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C97" s="72" t="s">
+      <c r="C97" s="59" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C98" s="72" t="s">
+      <c r="C98" s="59" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C99" s="72" t="s">
+      <c r="C99" s="59" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C100" s="72" t="s">
+      <c r="C100" s="59" t="s">
         <v>205</v>
       </c>
     </row>
@@ -7042,17 +7942,17 @@
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C103" s="72" t="s">
+      <c r="C103" s="59" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C104" s="72" t="s">
+      <c r="C104" s="59" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C105" s="72" t="s">
+      <c r="C105" s="59" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7062,7 +7962,7 @@
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C108" s="72" t="s">
+      <c r="C108" s="59" t="s">
         <v>199</v>
       </c>
     </row>
@@ -7115,12 +8015,12 @@
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B143" s="72" t="s">
+      <c r="B143" s="59" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B144" s="72" t="s">
+      <c r="B144" s="59" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7130,7 +8030,7 @@
       </c>
     </row>
     <row r="147" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B147" s="71" t="s">
+      <c r="B147" s="58" t="s">
         <v>191</v>
       </c>
     </row>
@@ -7476,32 +8376,32 @@
       <c r="O167" s="2"/>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A169" s="61"/>
-      <c r="B169" s="61"/>
-      <c r="C169" s="61"/>
-      <c r="D169" s="61"/>
-      <c r="E169" s="61"/>
-      <c r="F169" s="61"/>
-      <c r="G169" s="61"/>
-      <c r="H169" s="61"/>
-      <c r="I169" s="61"/>
-      <c r="J169" s="61"/>
-      <c r="K169" s="61"/>
-      <c r="L169" s="61"/>
-      <c r="M169" s="61"/>
-      <c r="N169" s="61"/>
-      <c r="O169" s="61"/>
-      <c r="P169" s="61"/>
-      <c r="Q169" s="61"/>
-      <c r="R169" s="61"/>
-      <c r="S169" s="61"/>
-      <c r="T169" s="61"/>
-      <c r="U169" s="61"/>
-      <c r="V169" s="61"/>
-      <c r="W169" s="61"/>
-      <c r="X169" s="61"/>
-      <c r="Y169" s="61"/>
-      <c r="Z169" s="61"/>
+      <c r="A169" s="57"/>
+      <c r="B169" s="57"/>
+      <c r="C169" s="57"/>
+      <c r="D169" s="57"/>
+      <c r="E169" s="57"/>
+      <c r="F169" s="57"/>
+      <c r="G169" s="57"/>
+      <c r="H169" s="57"/>
+      <c r="I169" s="57"/>
+      <c r="J169" s="57"/>
+      <c r="K169" s="57"/>
+      <c r="L169" s="57"/>
+      <c r="M169" s="57"/>
+      <c r="N169" s="57"/>
+      <c r="O169" s="57"/>
+      <c r="P169" s="57"/>
+      <c r="Q169" s="57"/>
+      <c r="R169" s="57"/>
+      <c r="S169" s="57"/>
+      <c r="T169" s="57"/>
+      <c r="U169" s="57"/>
+      <c r="V169" s="57"/>
+      <c r="W169" s="57"/>
+      <c r="X169" s="57"/>
+      <c r="Y169" s="57"/>
+      <c r="Z169" s="57"/>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
@@ -7649,32 +8549,32 @@
       <c r="G185" s="2"/>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A186" s="73"/>
-      <c r="B186" s="73"/>
-      <c r="C186" s="73"/>
-      <c r="D186" s="73"/>
-      <c r="E186" s="73"/>
-      <c r="F186" s="73"/>
-      <c r="G186" s="73"/>
-      <c r="H186" s="73"/>
-      <c r="I186" s="73"/>
-      <c r="J186" s="73"/>
-      <c r="K186" s="73"/>
-      <c r="L186" s="73"/>
-      <c r="M186" s="73"/>
-      <c r="N186" s="73"/>
-      <c r="O186" s="73"/>
-      <c r="P186" s="73"/>
-      <c r="Q186" s="73"/>
-      <c r="R186" s="73"/>
-      <c r="S186" s="73"/>
-      <c r="T186" s="73"/>
-      <c r="U186" s="73"/>
-      <c r="V186" s="73"/>
-      <c r="W186" s="73"/>
-      <c r="X186" s="73"/>
-      <c r="Y186" s="73"/>
-      <c r="Z186" s="73"/>
+      <c r="A186" s="60"/>
+      <c r="B186" s="60"/>
+      <c r="C186" s="60"/>
+      <c r="D186" s="60"/>
+      <c r="E186" s="60"/>
+      <c r="F186" s="60"/>
+      <c r="G186" s="60"/>
+      <c r="H186" s="60"/>
+      <c r="I186" s="60"/>
+      <c r="J186" s="60"/>
+      <c r="K186" s="60"/>
+      <c r="L186" s="60"/>
+      <c r="M186" s="60"/>
+      <c r="N186" s="60"/>
+      <c r="O186" s="60"/>
+      <c r="P186" s="60"/>
+      <c r="Q186" s="60"/>
+      <c r="R186" s="60"/>
+      <c r="S186" s="60"/>
+      <c r="T186" s="60"/>
+      <c r="U186" s="60"/>
+      <c r="V186" s="60"/>
+      <c r="W186" s="60"/>
+      <c r="X186" s="60"/>
+      <c r="Y186" s="60"/>
+      <c r="Z186" s="60"/>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
@@ -7682,10 +8582,10 @@
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C190" s="72" t="s">
+      <c r="C190" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="D190" s="71"/>
+      <c r="D190" s="58"/>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C191" s="35" t="s">
@@ -7780,12 +8680,12 @@
       <c r="D200" t="s">
         <v>184</v>
       </c>
-      <c r="K200" s="70" t="s">
+      <c r="K200" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="L200" s="69"/>
-      <c r="M200" s="69"/>
-      <c r="N200" s="68"/>
+      <c r="L200" s="62"/>
+      <c r="M200" s="62"/>
+      <c r="N200" s="63"/>
       <c r="P200" t="s">
         <v>171</v>
       </c>
@@ -7794,33 +8694,33 @@
     </row>
     <row r="201" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="5"/>
-      <c r="K201" s="67"/>
-      <c r="L201" s="66"/>
-      <c r="M201" s="66"/>
-      <c r="N201" s="65"/>
+      <c r="K201" s="64"/>
+      <c r="L201" s="65"/>
+      <c r="M201" s="65"/>
+      <c r="N201" s="66"/>
       <c r="T201" s="3"/>
       <c r="Y201" s="4"/>
     </row>
     <row r="202" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B202" s="5"/>
-      <c r="K202" s="64"/>
-      <c r="L202" s="63"/>
-      <c r="M202" s="63"/>
-      <c r="N202" s="62"/>
-      <c r="S202" s="70" t="s">
+      <c r="K202" s="67"/>
+      <c r="L202" s="68"/>
+      <c r="M202" s="68"/>
+      <c r="N202" s="69"/>
+      <c r="S202" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="T202" s="69"/>
-      <c r="U202" s="69"/>
-      <c r="V202" s="68"/>
+      <c r="T202" s="62"/>
+      <c r="U202" s="62"/>
+      <c r="V202" s="63"/>
       <c r="Y202" s="4"/>
     </row>
     <row r="203" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B203" s="5"/>
-      <c r="S203" s="67"/>
-      <c r="T203" s="66"/>
-      <c r="U203" s="66"/>
-      <c r="V203" s="65"/>
+      <c r="S203" s="64"/>
+      <c r="T203" s="65"/>
+      <c r="U203" s="65"/>
+      <c r="V203" s="66"/>
       <c r="Y203" s="4"/>
     </row>
     <row r="204" spans="2:25" x14ac:dyDescent="0.3">
@@ -7828,10 +8728,10 @@
       <c r="L204" t="s">
         <v>181</v>
       </c>
-      <c r="S204" s="64"/>
-      <c r="T204" s="63"/>
-      <c r="U204" s="63"/>
-      <c r="V204" s="62"/>
+      <c r="S204" s="67"/>
+      <c r="T204" s="68"/>
+      <c r="U204" s="68"/>
+      <c r="V204" s="69"/>
       <c r="Y204" s="4"/>
     </row>
     <row r="205" spans="2:25" x14ac:dyDescent="0.3">
@@ -7840,21 +8740,21 @@
     </row>
     <row r="206" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B206" s="5"/>
-      <c r="D206" s="70" t="s">
+      <c r="D206" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="E206" s="69"/>
-      <c r="F206" s="69"/>
-      <c r="G206" s="68"/>
+      <c r="E206" s="62"/>
+      <c r="F206" s="62"/>
+      <c r="G206" s="63"/>
       <c r="H206" t="s">
         <v>179</v>
       </c>
-      <c r="K206" s="70" t="s">
+      <c r="K206" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="L206" s="69"/>
-      <c r="M206" s="69"/>
-      <c r="N206" s="68"/>
+      <c r="L206" s="62"/>
+      <c r="M206" s="62"/>
+      <c r="N206" s="63"/>
       <c r="O206" t="s">
         <v>177</v>
       </c>
@@ -7865,41 +8765,41 @@
     </row>
     <row r="207" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B207" s="5"/>
-      <c r="D207" s="67"/>
-      <c r="E207" s="66"/>
-      <c r="F207" s="66"/>
-      <c r="G207" s="65"/>
-      <c r="K207" s="67"/>
-      <c r="L207" s="66"/>
-      <c r="M207" s="66"/>
-      <c r="N207" s="65"/>
+      <c r="D207" s="64"/>
+      <c r="E207" s="65"/>
+      <c r="F207" s="65"/>
+      <c r="G207" s="66"/>
+      <c r="K207" s="64"/>
+      <c r="L207" s="65"/>
+      <c r="M207" s="65"/>
+      <c r="N207" s="66"/>
       <c r="Y207" s="4"/>
     </row>
     <row r="208" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B208" s="5"/>
-      <c r="D208" s="64"/>
-      <c r="E208" s="63"/>
-      <c r="F208" s="63"/>
-      <c r="G208" s="62"/>
-      <c r="K208" s="64"/>
-      <c r="L208" s="63"/>
-      <c r="M208" s="63"/>
-      <c r="N208" s="62"/>
-      <c r="Q208" s="70" t="s">
+      <c r="D208" s="67"/>
+      <c r="E208" s="68"/>
+      <c r="F208" s="68"/>
+      <c r="G208" s="69"/>
+      <c r="K208" s="67"/>
+      <c r="L208" s="68"/>
+      <c r="M208" s="68"/>
+      <c r="N208" s="69"/>
+      <c r="Q208" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="R208" s="69"/>
-      <c r="S208" s="69"/>
-      <c r="T208" s="68"/>
+      <c r="R208" s="62"/>
+      <c r="S208" s="62"/>
+      <c r="T208" s="63"/>
       <c r="Y208" s="4"/>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B209" s="5"/>
       <c r="E209" s="7"/>
-      <c r="Q209" s="67"/>
-      <c r="R209" s="66"/>
-      <c r="S209" s="66"/>
-      <c r="T209" s="65"/>
+      <c r="Q209" s="64"/>
+      <c r="R209" s="65"/>
+      <c r="S209" s="65"/>
+      <c r="T209" s="66"/>
       <c r="Y209" s="4"/>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.3">
@@ -7908,10 +8808,10 @@
       <c r="H210" t="s">
         <v>175</v>
       </c>
-      <c r="Q210" s="64"/>
-      <c r="R210" s="63"/>
-      <c r="S210" s="63"/>
-      <c r="T210" s="62"/>
+      <c r="Q210" s="67"/>
+      <c r="R210" s="68"/>
+      <c r="S210" s="68"/>
+      <c r="T210" s="69"/>
       <c r="Y210" s="4"/>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.3">
@@ -7922,12 +8822,12 @@
     <row r="212" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B212" s="5"/>
       <c r="E212" s="5"/>
-      <c r="K212" s="70" t="s">
+      <c r="K212" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="L212" s="69"/>
-      <c r="M212" s="69"/>
-      <c r="N212" s="68"/>
+      <c r="L212" s="62"/>
+      <c r="M212" s="62"/>
+      <c r="N212" s="63"/>
       <c r="O212" t="s">
         <v>173</v>
       </c>
@@ -7936,10 +8836,10 @@
     <row r="213" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B213" s="5"/>
       <c r="E213" s="5"/>
-      <c r="K213" s="67"/>
-      <c r="L213" s="66"/>
-      <c r="M213" s="66"/>
-      <c r="N213" s="65"/>
+      <c r="K213" s="64"/>
+      <c r="L213" s="65"/>
+      <c r="M213" s="65"/>
+      <c r="N213" s="66"/>
       <c r="Y213" s="4"/>
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.3">
@@ -7948,10 +8848,10 @@
       <c r="G214" t="s">
         <v>142</v>
       </c>
-      <c r="K214" s="64"/>
-      <c r="L214" s="63"/>
-      <c r="M214" s="63"/>
-      <c r="N214" s="62"/>
+      <c r="K214" s="67"/>
+      <c r="L214" s="68"/>
+      <c r="M214" s="68"/>
+      <c r="N214" s="69"/>
       <c r="T214" t="s">
         <v>172</v>
       </c>
@@ -8104,32 +9004,32 @@
       </c>
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A240" s="61"/>
-      <c r="B240" s="61"/>
-      <c r="C240" s="61"/>
-      <c r="D240" s="61"/>
-      <c r="E240" s="61"/>
-      <c r="F240" s="61"/>
-      <c r="G240" s="61"/>
-      <c r="H240" s="61"/>
-      <c r="I240" s="61"/>
-      <c r="J240" s="61"/>
-      <c r="K240" s="61"/>
-      <c r="L240" s="61"/>
-      <c r="M240" s="61"/>
-      <c r="N240" s="61"/>
-      <c r="O240" s="61"/>
-      <c r="P240" s="61"/>
-      <c r="Q240" s="61"/>
-      <c r="R240" s="61"/>
-      <c r="S240" s="61"/>
-      <c r="T240" s="61"/>
-      <c r="U240" s="61"/>
-      <c r="V240" s="61"/>
-      <c r="W240" s="61"/>
-      <c r="X240" s="61"/>
-      <c r="Y240" s="61"/>
-      <c r="Z240" s="61"/>
+      <c r="A240" s="57"/>
+      <c r="B240" s="57"/>
+      <c r="C240" s="57"/>
+      <c r="D240" s="57"/>
+      <c r="E240" s="57"/>
+      <c r="F240" s="57"/>
+      <c r="G240" s="57"/>
+      <c r="H240" s="57"/>
+      <c r="I240" s="57"/>
+      <c r="J240" s="57"/>
+      <c r="K240" s="57"/>
+      <c r="L240" s="57"/>
+      <c r="M240" s="57"/>
+      <c r="N240" s="57"/>
+      <c r="O240" s="57"/>
+      <c r="P240" s="57"/>
+      <c r="Q240" s="57"/>
+      <c r="R240" s="57"/>
+      <c r="S240" s="57"/>
+      <c r="T240" s="57"/>
+      <c r="U240" s="57"/>
+      <c r="V240" s="57"/>
+      <c r="W240" s="57"/>
+      <c r="X240" s="57"/>
+      <c r="Y240" s="57"/>
+      <c r="Z240" s="57"/>
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C241" t="s">
@@ -8210,20 +9110,20 @@
       </c>
     </row>
     <row r="257" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D257" s="53" t="s">
+      <c r="D257" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="E257" s="52"/>
+      <c r="E257" s="71"/>
       <c r="F257" s="8"/>
       <c r="G257" s="8"/>
       <c r="H257" s="8"/>
       <c r="I257" s="8"/>
       <c r="J257" s="8"/>
       <c r="K257" s="6"/>
-      <c r="M257" s="53" t="s">
+      <c r="M257" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="N257" s="52"/>
+      <c r="N257" s="71"/>
       <c r="O257" s="8"/>
       <c r="P257" s="8"/>
       <c r="Q257" s="8"/>
@@ -8232,11 +9132,11 @@
       <c r="T257" s="6"/>
     </row>
     <row r="258" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D258" s="50"/>
-      <c r="E258" s="49"/>
+      <c r="D258" s="72"/>
+      <c r="E258" s="73"/>
       <c r="K258" s="4"/>
-      <c r="M258" s="50"/>
-      <c r="N258" s="49"/>
+      <c r="M258" s="72"/>
+      <c r="N258" s="73"/>
       <c r="T258" s="4"/>
     </row>
     <row r="259" spans="4:20" x14ac:dyDescent="0.3">
@@ -8252,128 +9152,128 @@
       <c r="T259" s="4"/>
     </row>
     <row r="260" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D260" s="60">
+      <c r="D260" s="56">
         <v>1</v>
       </c>
-      <c r="F260" s="59"/>
+      <c r="F260" s="55"/>
       <c r="K260" s="4"/>
-      <c r="M260" s="60">
+      <c r="M260" s="56">
         <v>1</v>
       </c>
-      <c r="O260" s="59"/>
+      <c r="O260" s="55"/>
       <c r="T260" s="4"/>
     </row>
     <row r="261" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D261" s="5"/>
-      <c r="F261" s="59"/>
+      <c r="F261" s="55"/>
       <c r="K261" s="4"/>
       <c r="M261" s="5"/>
-      <c r="O261" s="59"/>
+      <c r="O261" s="55"/>
       <c r="T261" s="4"/>
     </row>
     <row r="262" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D262" s="5"/>
-      <c r="F262" s="59"/>
+      <c r="F262" s="55"/>
       <c r="K262" s="4"/>
       <c r="M262" s="5"/>
-      <c r="O262" s="59"/>
+      <c r="O262" s="55"/>
       <c r="T262" s="4"/>
     </row>
     <row r="263" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D263" s="5"/>
-      <c r="F263" s="59"/>
+      <c r="F263" s="55"/>
       <c r="K263" s="4"/>
       <c r="M263" s="5"/>
-      <c r="O263" s="59"/>
+      <c r="O263" s="55"/>
       <c r="T263" s="4"/>
     </row>
     <row r="264" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D264" s="5"/>
-      <c r="F264" s="59"/>
+      <c r="F264" s="55"/>
       <c r="K264" s="4"/>
       <c r="M264" s="5"/>
-      <c r="O264" s="59"/>
+      <c r="O264" s="55"/>
       <c r="T264" s="4"/>
     </row>
     <row r="265" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D265" s="5"/>
-      <c r="F265" s="59"/>
+      <c r="F265" s="55"/>
       <c r="K265" s="4"/>
       <c r="M265" s="5"/>
-      <c r="O265" s="59"/>
+      <c r="O265" s="55"/>
       <c r="T265" s="4"/>
     </row>
     <row r="266" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D266" s="5"/>
-      <c r="F266" s="59"/>
+      <c r="F266" s="55"/>
       <c r="K266" s="4"/>
       <c r="M266" s="5"/>
-      <c r="O266" s="59"/>
+      <c r="O266" s="55"/>
       <c r="T266" s="4"/>
     </row>
     <row r="267" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D267" s="60">
+      <c r="D267" s="56">
         <v>0</v>
       </c>
-      <c r="F267" s="59"/>
-      <c r="J267" s="53" t="s">
+      <c r="F267" s="55"/>
+      <c r="J267" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="K267" s="52"/>
-      <c r="M267" s="60">
+      <c r="K267" s="71"/>
+      <c r="M267" s="56">
         <v>0</v>
       </c>
-      <c r="O267" s="59"/>
-      <c r="S267" s="53" t="s">
+      <c r="O267" s="55"/>
+      <c r="S267" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="T267" s="52"/>
+      <c r="T267" s="71"/>
     </row>
     <row r="268" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D268" s="3"/>
-      <c r="E268" s="51">
+      <c r="E268" s="49">
         <v>0</v>
       </c>
-      <c r="F268" s="51">
+      <c r="F268" s="49">
         <v>0.15</v>
       </c>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
-      <c r="I268" s="51">
+      <c r="I268" s="49">
         <v>0.3</v>
       </c>
-      <c r="J268" s="50"/>
-      <c r="K268" s="49"/>
+      <c r="J268" s="72"/>
+      <c r="K268" s="73"/>
       <c r="M268" s="3"/>
-      <c r="N268" s="51">
+      <c r="N268" s="49">
         <v>0</v>
       </c>
-      <c r="O268" s="51">
+      <c r="O268" s="49">
         <v>0.05</v>
       </c>
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
-      <c r="R268" s="51">
+      <c r="R268" s="49">
         <v>0.15</v>
       </c>
-      <c r="S268" s="50"/>
-      <c r="T268" s="49"/>
+      <c r="S268" s="72"/>
+      <c r="T268" s="73"/>
     </row>
     <row r="270" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D270" s="53" t="s">
+      <c r="D270" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="E270" s="52"/>
+      <c r="E270" s="71"/>
       <c r="F270" s="8"/>
       <c r="G270" s="8"/>
       <c r="H270" s="8"/>
       <c r="I270" s="8"/>
       <c r="J270" s="8"/>
       <c r="K270" s="6"/>
-      <c r="M270" s="53" t="s">
+      <c r="M270" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="N270" s="52"/>
+      <c r="N270" s="71"/>
       <c r="O270" s="8"/>
       <c r="P270" s="8"/>
       <c r="Q270" s="8"/>
@@ -8382,11 +9282,11 @@
       <c r="T270" s="6"/>
     </row>
     <row r="271" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D271" s="50"/>
-      <c r="E271" s="49"/>
+      <c r="D271" s="72"/>
+      <c r="E271" s="73"/>
       <c r="K271" s="4"/>
-      <c r="M271" s="50"/>
-      <c r="N271" s="49"/>
+      <c r="M271" s="72"/>
+      <c r="N271" s="73"/>
       <c r="T271" s="4"/>
     </row>
     <row r="272" spans="4:20" x14ac:dyDescent="0.3">
@@ -8399,118 +9299,118 @@
       <c r="T272" s="4"/>
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D273" s="55" t="s">
+      <c r="D273" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="H273" s="57"/>
+      <c r="H273" s="53"/>
       <c r="I273" s="8"/>
       <c r="K273" s="4"/>
-      <c r="M273" s="55">
+      <c r="M273" s="51">
         <v>0.15</v>
       </c>
-      <c r="P273" s="54"/>
+      <c r="P273" s="50"/>
       <c r="T273" s="4"/>
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D274" s="5"/>
-      <c r="H274" s="57"/>
+      <c r="H274" s="53"/>
       <c r="K274" s="4"/>
       <c r="M274" s="5"/>
-      <c r="P274" s="54"/>
+      <c r="P274" s="50"/>
       <c r="T274" s="4"/>
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D275" s="5"/>
-      <c r="H275" s="57"/>
+      <c r="H275" s="53"/>
       <c r="K275" s="4"/>
       <c r="M275" s="5"/>
-      <c r="P275" s="54"/>
+      <c r="P275" s="50"/>
       <c r="T275" s="4"/>
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D276" s="5"/>
-      <c r="H276" s="56"/>
+      <c r="H276" s="52"/>
       <c r="K276" s="4"/>
       <c r="M276" s="5"/>
-      <c r="P276" s="54"/>
+      <c r="P276" s="50"/>
       <c r="T276" s="4"/>
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D277" s="58" t="s">
+      <c r="D277" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="F277" s="57"/>
+      <c r="F277" s="53"/>
       <c r="G277" s="8"/>
       <c r="H277" s="8"/>
       <c r="K277" s="4"/>
-      <c r="M277" s="55">
+      <c r="M277" s="51">
         <v>0.05</v>
       </c>
-      <c r="P277" s="54"/>
+      <c r="P277" s="50"/>
       <c r="T277" s="4"/>
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D278" s="5"/>
-      <c r="F278" s="57"/>
+      <c r="F278" s="53"/>
       <c r="K278" s="4"/>
       <c r="M278" s="5"/>
-      <c r="P278" s="54"/>
+      <c r="P278" s="50"/>
       <c r="T278" s="4"/>
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D279" s="5"/>
-      <c r="F279" s="56"/>
+      <c r="F279" s="52"/>
       <c r="K279" s="4"/>
       <c r="M279" s="5"/>
-      <c r="P279" s="54"/>
+      <c r="P279" s="50"/>
       <c r="T279" s="4"/>
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D280" s="55" t="s">
+      <c r="D280" s="51" t="s">
         <v>139</v>
       </c>
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
-      <c r="J280" s="53" t="s">
+      <c r="J280" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="K280" s="52"/>
-      <c r="M280" s="55">
+      <c r="K280" s="71"/>
+      <c r="M280" s="51">
         <v>0</v>
       </c>
-      <c r="P280" s="54"/>
-      <c r="S280" s="53" t="s">
+      <c r="P280" s="50"/>
+      <c r="S280" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="T280" s="52"/>
+      <c r="T280" s="71"/>
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D281" s="3"/>
-      <c r="E281" s="51">
+      <c r="E281" s="49">
         <v>0</v>
       </c>
-      <c r="F281" s="51"/>
-      <c r="G281" s="51">
+      <c r="F281" s="49"/>
+      <c r="G281" s="49">
         <v>0.1</v>
       </c>
       <c r="H281" s="1"/>
-      <c r="I281" s="51">
+      <c r="I281" s="49">
         <v>0.2</v>
       </c>
-      <c r="J281" s="50"/>
-      <c r="K281" s="49"/>
+      <c r="J281" s="72"/>
+      <c r="K281" s="73"/>
       <c r="M281" s="3"/>
-      <c r="N281" s="51">
+      <c r="N281" s="49">
         <v>0</v>
       </c>
-      <c r="O281" s="51"/>
-      <c r="P281" s="51"/>
+      <c r="O281" s="49"/>
+      <c r="P281" s="49"/>
       <c r="Q281" s="1"/>
-      <c r="R281" s="51">
+      <c r="R281" s="49">
         <v>1</v>
       </c>
-      <c r="S281" s="50"/>
-      <c r="T281" s="49"/>
+      <c r="S281" s="72"/>
+      <c r="T281" s="73"/>
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A283" s="48"/>
@@ -9381,6 +10281,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="K200:N202"/>
+    <mergeCell ref="K206:N208"/>
+    <mergeCell ref="S202:V204"/>
+    <mergeCell ref="K212:N214"/>
+    <mergeCell ref="J267:K268"/>
+    <mergeCell ref="M257:N258"/>
+    <mergeCell ref="S267:T268"/>
     <mergeCell ref="D206:G208"/>
     <mergeCell ref="Q208:T210"/>
     <mergeCell ref="J280:K281"/>
@@ -9388,13 +10295,6 @@
     <mergeCell ref="S280:T281"/>
     <mergeCell ref="D257:E258"/>
     <mergeCell ref="D270:E271"/>
-    <mergeCell ref="K200:N202"/>
-    <mergeCell ref="K206:N208"/>
-    <mergeCell ref="S202:V204"/>
-    <mergeCell ref="K212:N214"/>
-    <mergeCell ref="J267:K268"/>
-    <mergeCell ref="M257:N258"/>
-    <mergeCell ref="S267:T268"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9405,15 +10305,344 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEF9AA3-86D2-41A1-8552-9C21D49E0325}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:S89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="X70" sqref="X70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="59"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="74" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="59" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="74" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="59" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D45" s="58" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H61" s="59" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>323</v>
+      </c>
+      <c r="S68" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="70" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="74" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="76" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H82" s="74" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H85" s="74" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{30E7E294-2B21-4CD1-8C1F-508DDAE73F7F}"/>
+    <hyperlink ref="E20" r:id="rId2" xr:uid="{677D108A-305A-4F60-AC8D-73247440D221}"/>
+    <hyperlink ref="H82" r:id="rId3" xr:uid="{7B0D3B25-F554-4729-8946-8F9A4F65429E}"/>
+    <hyperlink ref="H85" r:id="rId4" xr:uid="{4316FEAF-7A8D-4FB7-B555-3ADA95795C43}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/아카데미 수업내용 5월/게임 기획서/김혜령(5월).xlsx
+++ b/아카데미 수업내용 5월/게임 기획서/김혜령(5월).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\아카데미 수업내용 5월\게임 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ED9DA5-2CC1-4079-B1CC-DC6C840B2576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1AF605-0B89-4FD8-8B9D-D872B9EDC919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{94D2E2B2-CE9B-4D47-BAEA-1760D6800868}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{94D2E2B2-CE9B-4D47-BAEA-1760D6800868}"/>
   </bookViews>
   <sheets>
     <sheet name="홍콩메서커 슬로우모션 매커니즘(5.02)" sheetId="2" r:id="rId1"/>
@@ -3440,6 +3440,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3478,9 +3481,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7441,8 +7441,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A2:Z349"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B325" sqref="B325"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8680,12 +8680,12 @@
       <c r="D200" t="s">
         <v>184</v>
       </c>
-      <c r="K200" s="61" t="s">
+      <c r="K200" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="L200" s="62"/>
-      <c r="M200" s="62"/>
-      <c r="N200" s="63"/>
+      <c r="L200" s="63"/>
+      <c r="M200" s="63"/>
+      <c r="N200" s="64"/>
       <c r="P200" t="s">
         <v>171</v>
       </c>
@@ -8694,33 +8694,33 @@
     </row>
     <row r="201" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="5"/>
-      <c r="K201" s="64"/>
-      <c r="L201" s="65"/>
-      <c r="M201" s="65"/>
-      <c r="N201" s="66"/>
+      <c r="K201" s="65"/>
+      <c r="L201" s="66"/>
+      <c r="M201" s="66"/>
+      <c r="N201" s="67"/>
       <c r="T201" s="3"/>
       <c r="Y201" s="4"/>
     </row>
     <row r="202" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B202" s="5"/>
-      <c r="K202" s="67"/>
-      <c r="L202" s="68"/>
-      <c r="M202" s="68"/>
-      <c r="N202" s="69"/>
-      <c r="S202" s="61" t="s">
+      <c r="K202" s="68"/>
+      <c r="L202" s="69"/>
+      <c r="M202" s="69"/>
+      <c r="N202" s="70"/>
+      <c r="S202" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="T202" s="62"/>
-      <c r="U202" s="62"/>
-      <c r="V202" s="63"/>
+      <c r="T202" s="63"/>
+      <c r="U202" s="63"/>
+      <c r="V202" s="64"/>
       <c r="Y202" s="4"/>
     </row>
     <row r="203" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B203" s="5"/>
-      <c r="S203" s="64"/>
-      <c r="T203" s="65"/>
-      <c r="U203" s="65"/>
-      <c r="V203" s="66"/>
+      <c r="S203" s="65"/>
+      <c r="T203" s="66"/>
+      <c r="U203" s="66"/>
+      <c r="V203" s="67"/>
       <c r="Y203" s="4"/>
     </row>
     <row r="204" spans="2:25" x14ac:dyDescent="0.3">
@@ -8728,10 +8728,10 @@
       <c r="L204" t="s">
         <v>181</v>
       </c>
-      <c r="S204" s="67"/>
-      <c r="T204" s="68"/>
-      <c r="U204" s="68"/>
-      <c r="V204" s="69"/>
+      <c r="S204" s="68"/>
+      <c r="T204" s="69"/>
+      <c r="U204" s="69"/>
+      <c r="V204" s="70"/>
       <c r="Y204" s="4"/>
     </row>
     <row r="205" spans="2:25" x14ac:dyDescent="0.3">
@@ -8740,21 +8740,21 @@
     </row>
     <row r="206" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B206" s="5"/>
-      <c r="D206" s="61" t="s">
+      <c r="D206" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="E206" s="62"/>
-      <c r="F206" s="62"/>
-      <c r="G206" s="63"/>
+      <c r="E206" s="63"/>
+      <c r="F206" s="63"/>
+      <c r="G206" s="64"/>
       <c r="H206" t="s">
         <v>179</v>
       </c>
-      <c r="K206" s="61" t="s">
+      <c r="K206" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="L206" s="62"/>
-      <c r="M206" s="62"/>
-      <c r="N206" s="63"/>
+      <c r="L206" s="63"/>
+      <c r="M206" s="63"/>
+      <c r="N206" s="64"/>
       <c r="O206" t="s">
         <v>177</v>
       </c>
@@ -8765,41 +8765,41 @@
     </row>
     <row r="207" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B207" s="5"/>
-      <c r="D207" s="64"/>
-      <c r="E207" s="65"/>
-      <c r="F207" s="65"/>
-      <c r="G207" s="66"/>
-      <c r="K207" s="64"/>
-      <c r="L207" s="65"/>
-      <c r="M207" s="65"/>
-      <c r="N207" s="66"/>
+      <c r="D207" s="65"/>
+      <c r="E207" s="66"/>
+      <c r="F207" s="66"/>
+      <c r="G207" s="67"/>
+      <c r="K207" s="65"/>
+      <c r="L207" s="66"/>
+      <c r="M207" s="66"/>
+      <c r="N207" s="67"/>
       <c r="Y207" s="4"/>
     </row>
     <row r="208" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B208" s="5"/>
-      <c r="D208" s="67"/>
-      <c r="E208" s="68"/>
-      <c r="F208" s="68"/>
-      <c r="G208" s="69"/>
-      <c r="K208" s="67"/>
-      <c r="L208" s="68"/>
-      <c r="M208" s="68"/>
-      <c r="N208" s="69"/>
-      <c r="Q208" s="61" t="s">
+      <c r="D208" s="68"/>
+      <c r="E208" s="69"/>
+      <c r="F208" s="69"/>
+      <c r="G208" s="70"/>
+      <c r="K208" s="68"/>
+      <c r="L208" s="69"/>
+      <c r="M208" s="69"/>
+      <c r="N208" s="70"/>
+      <c r="Q208" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="R208" s="62"/>
-      <c r="S208" s="62"/>
-      <c r="T208" s="63"/>
+      <c r="R208" s="63"/>
+      <c r="S208" s="63"/>
+      <c r="T208" s="64"/>
       <c r="Y208" s="4"/>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B209" s="5"/>
       <c r="E209" s="7"/>
-      <c r="Q209" s="64"/>
-      <c r="R209" s="65"/>
-      <c r="S209" s="65"/>
-      <c r="T209" s="66"/>
+      <c r="Q209" s="65"/>
+      <c r="R209" s="66"/>
+      <c r="S209" s="66"/>
+      <c r="T209" s="67"/>
       <c r="Y209" s="4"/>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.3">
@@ -8808,10 +8808,10 @@
       <c r="H210" t="s">
         <v>175</v>
       </c>
-      <c r="Q210" s="67"/>
-      <c r="R210" s="68"/>
-      <c r="S210" s="68"/>
-      <c r="T210" s="69"/>
+      <c r="Q210" s="68"/>
+      <c r="R210" s="69"/>
+      <c r="S210" s="69"/>
+      <c r="T210" s="70"/>
       <c r="Y210" s="4"/>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.3">
@@ -8822,12 +8822,12 @@
     <row r="212" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B212" s="5"/>
       <c r="E212" s="5"/>
-      <c r="K212" s="61" t="s">
+      <c r="K212" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="L212" s="62"/>
-      <c r="M212" s="62"/>
-      <c r="N212" s="63"/>
+      <c r="L212" s="63"/>
+      <c r="M212" s="63"/>
+      <c r="N212" s="64"/>
       <c r="O212" t="s">
         <v>173</v>
       </c>
@@ -8836,10 +8836,10 @@
     <row r="213" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B213" s="5"/>
       <c r="E213" s="5"/>
-      <c r="K213" s="64"/>
-      <c r="L213" s="65"/>
-      <c r="M213" s="65"/>
-      <c r="N213" s="66"/>
+      <c r="K213" s="65"/>
+      <c r="L213" s="66"/>
+      <c r="M213" s="66"/>
+      <c r="N213" s="67"/>
       <c r="Y213" s="4"/>
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.3">
@@ -8848,10 +8848,10 @@
       <c r="G214" t="s">
         <v>142</v>
       </c>
-      <c r="K214" s="67"/>
-      <c r="L214" s="68"/>
-      <c r="M214" s="68"/>
-      <c r="N214" s="69"/>
+      <c r="K214" s="68"/>
+      <c r="L214" s="69"/>
+      <c r="M214" s="69"/>
+      <c r="N214" s="70"/>
       <c r="T214" t="s">
         <v>172</v>
       </c>
@@ -9110,20 +9110,20 @@
       </c>
     </row>
     <row r="257" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D257" s="70" t="s">
+      <c r="D257" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="E257" s="71"/>
+      <c r="E257" s="72"/>
       <c r="F257" s="8"/>
       <c r="G257" s="8"/>
       <c r="H257" s="8"/>
       <c r="I257" s="8"/>
       <c r="J257" s="8"/>
       <c r="K257" s="6"/>
-      <c r="M257" s="70" t="s">
+      <c r="M257" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="N257" s="71"/>
+      <c r="N257" s="72"/>
       <c r="O257" s="8"/>
       <c r="P257" s="8"/>
       <c r="Q257" s="8"/>
@@ -9132,11 +9132,11 @@
       <c r="T257" s="6"/>
     </row>
     <row r="258" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D258" s="72"/>
-      <c r="E258" s="73"/>
+      <c r="D258" s="73"/>
+      <c r="E258" s="74"/>
       <c r="K258" s="4"/>
-      <c r="M258" s="72"/>
-      <c r="N258" s="73"/>
+      <c r="M258" s="73"/>
+      <c r="N258" s="74"/>
       <c r="T258" s="4"/>
     </row>
     <row r="259" spans="4:20" x14ac:dyDescent="0.3">
@@ -9216,18 +9216,18 @@
         <v>0</v>
       </c>
       <c r="F267" s="55"/>
-      <c r="J267" s="70" t="s">
+      <c r="J267" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="K267" s="71"/>
+      <c r="K267" s="72"/>
       <c r="M267" s="56">
         <v>0</v>
       </c>
       <c r="O267" s="55"/>
-      <c r="S267" s="70" t="s">
+      <c r="S267" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="T267" s="71"/>
+      <c r="T267" s="72"/>
     </row>
     <row r="268" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D268" s="3"/>
@@ -9242,8 +9242,8 @@
       <c r="I268" s="49">
         <v>0.3</v>
       </c>
-      <c r="J268" s="72"/>
-      <c r="K268" s="73"/>
+      <c r="J268" s="73"/>
+      <c r="K268" s="74"/>
       <c r="M268" s="3"/>
       <c r="N268" s="49">
         <v>0</v>
@@ -9256,24 +9256,24 @@
       <c r="R268" s="49">
         <v>0.15</v>
       </c>
-      <c r="S268" s="72"/>
-      <c r="T268" s="73"/>
+      <c r="S268" s="73"/>
+      <c r="T268" s="74"/>
     </row>
     <row r="270" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D270" s="70" t="s">
+      <c r="D270" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="E270" s="71"/>
+      <c r="E270" s="72"/>
       <c r="F270" s="8"/>
       <c r="G270" s="8"/>
       <c r="H270" s="8"/>
       <c r="I270" s="8"/>
       <c r="J270" s="8"/>
       <c r="K270" s="6"/>
-      <c r="M270" s="70" t="s">
+      <c r="M270" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="N270" s="71"/>
+      <c r="N270" s="72"/>
       <c r="O270" s="8"/>
       <c r="P270" s="8"/>
       <c r="Q270" s="8"/>
@@ -9282,11 +9282,11 @@
       <c r="T270" s="6"/>
     </row>
     <row r="271" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D271" s="72"/>
-      <c r="E271" s="73"/>
+      <c r="D271" s="73"/>
+      <c r="E271" s="74"/>
       <c r="K271" s="4"/>
-      <c r="M271" s="72"/>
-      <c r="N271" s="73"/>
+      <c r="M271" s="73"/>
+      <c r="N271" s="74"/>
       <c r="T271" s="4"/>
     </row>
     <row r="272" spans="4:20" x14ac:dyDescent="0.3">
@@ -9371,18 +9371,18 @@
       </c>
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
-      <c r="J280" s="70" t="s">
+      <c r="J280" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="K280" s="71"/>
+      <c r="K280" s="72"/>
       <c r="M280" s="51">
         <v>0</v>
       </c>
       <c r="P280" s="50"/>
-      <c r="S280" s="70" t="s">
+      <c r="S280" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="T280" s="71"/>
+      <c r="T280" s="72"/>
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D281" s="3"/>
@@ -9397,8 +9397,8 @@
       <c r="I281" s="49">
         <v>0.2</v>
       </c>
-      <c r="J281" s="72"/>
-      <c r="K281" s="73"/>
+      <c r="J281" s="73"/>
+      <c r="K281" s="74"/>
       <c r="M281" s="3"/>
       <c r="N281" s="49">
         <v>0</v>
@@ -9409,8 +9409,8 @@
       <c r="R281" s="49">
         <v>1</v>
       </c>
-      <c r="S281" s="72"/>
-      <c r="T281" s="73"/>
+      <c r="S281" s="73"/>
+      <c r="T281" s="74"/>
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A283" s="48"/>
@@ -10281,6 +10281,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D206:G208"/>
+    <mergeCell ref="Q208:T210"/>
+    <mergeCell ref="J280:K281"/>
+    <mergeCell ref="M270:N271"/>
+    <mergeCell ref="S280:T281"/>
+    <mergeCell ref="D257:E258"/>
+    <mergeCell ref="D270:E271"/>
     <mergeCell ref="K200:N202"/>
     <mergeCell ref="K206:N208"/>
     <mergeCell ref="S202:V204"/>
@@ -10288,13 +10295,6 @@
     <mergeCell ref="J267:K268"/>
     <mergeCell ref="M257:N258"/>
     <mergeCell ref="S267:T268"/>
-    <mergeCell ref="D206:G208"/>
-    <mergeCell ref="Q208:T210"/>
-    <mergeCell ref="J280:K281"/>
-    <mergeCell ref="M270:N271"/>
-    <mergeCell ref="S280:T281"/>
-    <mergeCell ref="D257:E258"/>
-    <mergeCell ref="D270:E271"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10307,7 +10307,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="X70" sqref="X70"/>
     </sheetView>
   </sheetViews>
@@ -10357,7 +10357,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="61" t="s">
         <v>282</v>
       </c>
     </row>
@@ -10382,7 +10382,7 @@
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="61" t="s">
         <v>287</v>
       </c>
     </row>
@@ -10610,7 +10610,7 @@
       </c>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H82" s="74" t="s">
+      <c r="H82" s="61" t="s">
         <v>335</v>
       </c>
     </row>
@@ -10620,7 +10620,7 @@
       </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H85" s="74" t="s">
+      <c r="H85" s="61" t="s">
         <v>337</v>
       </c>
     </row>

--- a/아카데미 수업내용 5월/게임 기획서/김혜령(5월).xlsx
+++ b/아카데미 수업내용 5월/게임 기획서/김혜령(5월).xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\아카데미 수업내용 5월\게임 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1AF605-0B89-4FD8-8B9D-D872B9EDC919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC09F606-F63F-4EED-8610-7C2AD138F428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{94D2E2B2-CE9B-4D47-BAEA-1760D6800868}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{94D2E2B2-CE9B-4D47-BAEA-1760D6800868}"/>
   </bookViews>
   <sheets>
     <sheet name="홍콩메서커 슬로우모션 매커니즘(5.02)" sheetId="2" r:id="rId1"/>
     <sheet name="홍콩메서커 슬로우모션 기획서(5.03-5.08)" sheetId="3" r:id="rId2"/>
     <sheet name="플밍반 협업 게임 준비페이지(5.21~7.11)" sheetId="1" r:id="rId3"/>
+    <sheet name="게임 마일스톤" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="404">
   <si>
     <t>&lt; 슬로우 모션의 플로우 &gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2897,6 +2898,262 @@
   </si>
   <si>
     <t>무기를 교체하는 스타일리쉬한 전투로 보스의 강력한 패턴을 파훼하는 쾌감이 있는 보스러쉬 전투액션 백뷰 3D 게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌 &gt; 우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc가 8방향으로 이동한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc가 주먹을 이용해 npc를 공격한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc를 향해 탄환을 발사한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8방향 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭 및 세부2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바디블로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc가 더킹을 하며 주먹공격시 나가는 강공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc가 함정, npc의 공격을 회피한다 / 회피중 무적이 잠시 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽에서 오른쪽으로 진행하면서, pc 뒤에서 날아오는 탄환이 없도록 설계한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수한 도탄(탄환)을 받아치고, 전방의 탄환 일부를 삭제한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄환 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z + X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z + X / 특수 도탄에 닿았을때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc를 향해 회피로만 피할수 있는 공격을 발사한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc 가 회피를 하도록 유도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC 마일스톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적인 인간형태, 남성 기준의 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근육질의 남성 형태 (최종 완성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피와 2개의 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격의 이펙트, 패링시 오라 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC 마일스톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기합소리, 이동하는 소리(발소리), etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적인 인간형태, 남성과 여성 모델 모두 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 이동과 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쭈그려 앉은 자세, 혹은 서있는 자세 고정, 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적인 캡슐 형태의 탄환을 PC에게 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법사, 마녀의 형태(최종완성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 형태의 기본 공격과 범위 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷건형 도탄, 부채꼴형, 도탄형, etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 도탄 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 사운드, 폭발 사운드, 피격되는 사운드(비명), etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 마일스톤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3256,7 +3513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3443,6 +3700,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3481,6 +3747,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7441,7 +7710,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A2:Z349"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -8680,12 +8949,12 @@
       <c r="D200" t="s">
         <v>184</v>
       </c>
-      <c r="K200" s="62" t="s">
+      <c r="K200" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="L200" s="63"/>
-      <c r="M200" s="63"/>
-      <c r="N200" s="64"/>
+      <c r="L200" s="66"/>
+      <c r="M200" s="66"/>
+      <c r="N200" s="67"/>
       <c r="P200" t="s">
         <v>171</v>
       </c>
@@ -8694,33 +8963,33 @@
     </row>
     <row r="201" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="5"/>
-      <c r="K201" s="65"/>
-      <c r="L201" s="66"/>
-      <c r="M201" s="66"/>
-      <c r="N201" s="67"/>
+      <c r="K201" s="68"/>
+      <c r="L201" s="69"/>
+      <c r="M201" s="69"/>
+      <c r="N201" s="70"/>
       <c r="T201" s="3"/>
       <c r="Y201" s="4"/>
     </row>
     <row r="202" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B202" s="5"/>
-      <c r="K202" s="68"/>
-      <c r="L202" s="69"/>
-      <c r="M202" s="69"/>
-      <c r="N202" s="70"/>
-      <c r="S202" s="62" t="s">
+      <c r="K202" s="71"/>
+      <c r="L202" s="72"/>
+      <c r="M202" s="72"/>
+      <c r="N202" s="73"/>
+      <c r="S202" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="T202" s="63"/>
-      <c r="U202" s="63"/>
-      <c r="V202" s="64"/>
+      <c r="T202" s="66"/>
+      <c r="U202" s="66"/>
+      <c r="V202" s="67"/>
       <c r="Y202" s="4"/>
     </row>
     <row r="203" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B203" s="5"/>
-      <c r="S203" s="65"/>
-      <c r="T203" s="66"/>
-      <c r="U203" s="66"/>
-      <c r="V203" s="67"/>
+      <c r="S203" s="68"/>
+      <c r="T203" s="69"/>
+      <c r="U203" s="69"/>
+      <c r="V203" s="70"/>
       <c r="Y203" s="4"/>
     </row>
     <row r="204" spans="2:25" x14ac:dyDescent="0.3">
@@ -8728,10 +8997,10 @@
       <c r="L204" t="s">
         <v>181</v>
       </c>
-      <c r="S204" s="68"/>
-      <c r="T204" s="69"/>
-      <c r="U204" s="69"/>
-      <c r="V204" s="70"/>
+      <c r="S204" s="71"/>
+      <c r="T204" s="72"/>
+      <c r="U204" s="72"/>
+      <c r="V204" s="73"/>
       <c r="Y204" s="4"/>
     </row>
     <row r="205" spans="2:25" x14ac:dyDescent="0.3">
@@ -8740,21 +9009,21 @@
     </row>
     <row r="206" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B206" s="5"/>
-      <c r="D206" s="62" t="s">
+      <c r="D206" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="E206" s="63"/>
-      <c r="F206" s="63"/>
-      <c r="G206" s="64"/>
+      <c r="E206" s="66"/>
+      <c r="F206" s="66"/>
+      <c r="G206" s="67"/>
       <c r="H206" t="s">
         <v>179</v>
       </c>
-      <c r="K206" s="62" t="s">
+      <c r="K206" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="L206" s="63"/>
-      <c r="M206" s="63"/>
-      <c r="N206" s="64"/>
+      <c r="L206" s="66"/>
+      <c r="M206" s="66"/>
+      <c r="N206" s="67"/>
       <c r="O206" t="s">
         <v>177</v>
       </c>
@@ -8765,41 +9034,41 @@
     </row>
     <row r="207" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B207" s="5"/>
-      <c r="D207" s="65"/>
-      <c r="E207" s="66"/>
-      <c r="F207" s="66"/>
-      <c r="G207" s="67"/>
-      <c r="K207" s="65"/>
-      <c r="L207" s="66"/>
-      <c r="M207" s="66"/>
-      <c r="N207" s="67"/>
+      <c r="D207" s="68"/>
+      <c r="E207" s="69"/>
+      <c r="F207" s="69"/>
+      <c r="G207" s="70"/>
+      <c r="K207" s="68"/>
+      <c r="L207" s="69"/>
+      <c r="M207" s="69"/>
+      <c r="N207" s="70"/>
       <c r="Y207" s="4"/>
     </row>
     <row r="208" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B208" s="5"/>
-      <c r="D208" s="68"/>
-      <c r="E208" s="69"/>
-      <c r="F208" s="69"/>
-      <c r="G208" s="70"/>
-      <c r="K208" s="68"/>
-      <c r="L208" s="69"/>
-      <c r="M208" s="69"/>
-      <c r="N208" s="70"/>
-      <c r="Q208" s="62" t="s">
+      <c r="D208" s="71"/>
+      <c r="E208" s="72"/>
+      <c r="F208" s="72"/>
+      <c r="G208" s="73"/>
+      <c r="K208" s="71"/>
+      <c r="L208" s="72"/>
+      <c r="M208" s="72"/>
+      <c r="N208" s="73"/>
+      <c r="Q208" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="R208" s="63"/>
-      <c r="S208" s="63"/>
-      <c r="T208" s="64"/>
+      <c r="R208" s="66"/>
+      <c r="S208" s="66"/>
+      <c r="T208" s="67"/>
       <c r="Y208" s="4"/>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B209" s="5"/>
       <c r="E209" s="7"/>
-      <c r="Q209" s="65"/>
-      <c r="R209" s="66"/>
-      <c r="S209" s="66"/>
-      <c r="T209" s="67"/>
+      <c r="Q209" s="68"/>
+      <c r="R209" s="69"/>
+      <c r="S209" s="69"/>
+      <c r="T209" s="70"/>
       <c r="Y209" s="4"/>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.3">
@@ -8808,10 +9077,10 @@
       <c r="H210" t="s">
         <v>175</v>
       </c>
-      <c r="Q210" s="68"/>
-      <c r="R210" s="69"/>
-      <c r="S210" s="69"/>
-      <c r="T210" s="70"/>
+      <c r="Q210" s="71"/>
+      <c r="R210" s="72"/>
+      <c r="S210" s="72"/>
+      <c r="T210" s="73"/>
       <c r="Y210" s="4"/>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.3">
@@ -8822,12 +9091,12 @@
     <row r="212" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B212" s="5"/>
       <c r="E212" s="5"/>
-      <c r="K212" s="62" t="s">
+      <c r="K212" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="L212" s="63"/>
-      <c r="M212" s="63"/>
-      <c r="N212" s="64"/>
+      <c r="L212" s="66"/>
+      <c r="M212" s="66"/>
+      <c r="N212" s="67"/>
       <c r="O212" t="s">
         <v>173</v>
       </c>
@@ -8836,10 +9105,10 @@
     <row r="213" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B213" s="5"/>
       <c r="E213" s="5"/>
-      <c r="K213" s="65"/>
-      <c r="L213" s="66"/>
-      <c r="M213" s="66"/>
-      <c r="N213" s="67"/>
+      <c r="K213" s="68"/>
+      <c r="L213" s="69"/>
+      <c r="M213" s="69"/>
+      <c r="N213" s="70"/>
       <c r="Y213" s="4"/>
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.3">
@@ -8848,10 +9117,10 @@
       <c r="G214" t="s">
         <v>142</v>
       </c>
-      <c r="K214" s="68"/>
-      <c r="L214" s="69"/>
-      <c r="M214" s="69"/>
-      <c r="N214" s="70"/>
+      <c r="K214" s="71"/>
+      <c r="L214" s="72"/>
+      <c r="M214" s="72"/>
+      <c r="N214" s="73"/>
       <c r="T214" t="s">
         <v>172</v>
       </c>
@@ -9110,20 +9379,20 @@
       </c>
     </row>
     <row r="257" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D257" s="71" t="s">
+      <c r="D257" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="E257" s="72"/>
+      <c r="E257" s="75"/>
       <c r="F257" s="8"/>
       <c r="G257" s="8"/>
       <c r="H257" s="8"/>
       <c r="I257" s="8"/>
       <c r="J257" s="8"/>
       <c r="K257" s="6"/>
-      <c r="M257" s="71" t="s">
+      <c r="M257" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="N257" s="72"/>
+      <c r="N257" s="75"/>
       <c r="O257" s="8"/>
       <c r="P257" s="8"/>
       <c r="Q257" s="8"/>
@@ -9132,11 +9401,11 @@
       <c r="T257" s="6"/>
     </row>
     <row r="258" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D258" s="73"/>
-      <c r="E258" s="74"/>
+      <c r="D258" s="76"/>
+      <c r="E258" s="77"/>
       <c r="K258" s="4"/>
-      <c r="M258" s="73"/>
-      <c r="N258" s="74"/>
+      <c r="M258" s="76"/>
+      <c r="N258" s="77"/>
       <c r="T258" s="4"/>
     </row>
     <row r="259" spans="4:20" x14ac:dyDescent="0.3">
@@ -9216,18 +9485,18 @@
         <v>0</v>
       </c>
       <c r="F267" s="55"/>
-      <c r="J267" s="71" t="s">
+      <c r="J267" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="K267" s="72"/>
+      <c r="K267" s="75"/>
       <c r="M267" s="56">
         <v>0</v>
       </c>
       <c r="O267" s="55"/>
-      <c r="S267" s="71" t="s">
+      <c r="S267" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="T267" s="72"/>
+      <c r="T267" s="75"/>
     </row>
     <row r="268" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D268" s="3"/>
@@ -9242,8 +9511,8 @@
       <c r="I268" s="49">
         <v>0.3</v>
       </c>
-      <c r="J268" s="73"/>
-      <c r="K268" s="74"/>
+      <c r="J268" s="76"/>
+      <c r="K268" s="77"/>
       <c r="M268" s="3"/>
       <c r="N268" s="49">
         <v>0</v>
@@ -9256,24 +9525,24 @@
       <c r="R268" s="49">
         <v>0.15</v>
       </c>
-      <c r="S268" s="73"/>
-      <c r="T268" s="74"/>
+      <c r="S268" s="76"/>
+      <c r="T268" s="77"/>
     </row>
     <row r="270" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D270" s="71" t="s">
+      <c r="D270" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="E270" s="72"/>
+      <c r="E270" s="75"/>
       <c r="F270" s="8"/>
       <c r="G270" s="8"/>
       <c r="H270" s="8"/>
       <c r="I270" s="8"/>
       <c r="J270" s="8"/>
       <c r="K270" s="6"/>
-      <c r="M270" s="71" t="s">
+      <c r="M270" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="N270" s="72"/>
+      <c r="N270" s="75"/>
       <c r="O270" s="8"/>
       <c r="P270" s="8"/>
       <c r="Q270" s="8"/>
@@ -9282,11 +9551,11 @@
       <c r="T270" s="6"/>
     </row>
     <row r="271" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D271" s="73"/>
-      <c r="E271" s="74"/>
+      <c r="D271" s="76"/>
+      <c r="E271" s="77"/>
       <c r="K271" s="4"/>
-      <c r="M271" s="73"/>
-      <c r="N271" s="74"/>
+      <c r="M271" s="76"/>
+      <c r="N271" s="77"/>
       <c r="T271" s="4"/>
     </row>
     <row r="272" spans="4:20" x14ac:dyDescent="0.3">
@@ -9371,18 +9640,18 @@
       </c>
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
-      <c r="J280" s="71" t="s">
+      <c r="J280" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="K280" s="72"/>
+      <c r="K280" s="75"/>
       <c r="M280" s="51">
         <v>0</v>
       </c>
       <c r="P280" s="50"/>
-      <c r="S280" s="71" t="s">
+      <c r="S280" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="T280" s="72"/>
+      <c r="T280" s="75"/>
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D281" s="3"/>
@@ -9397,8 +9666,8 @@
       <c r="I281" s="49">
         <v>0.2</v>
       </c>
-      <c r="J281" s="73"/>
-      <c r="K281" s="74"/>
+      <c r="J281" s="76"/>
+      <c r="K281" s="77"/>
       <c r="M281" s="3"/>
       <c r="N281" s="49">
         <v>0</v>
@@ -9409,8 +9678,8 @@
       <c r="R281" s="49">
         <v>1</v>
       </c>
-      <c r="S281" s="73"/>
-      <c r="T281" s="74"/>
+      <c r="S281" s="76"/>
+      <c r="T281" s="77"/>
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A283" s="48"/>
@@ -10645,4 +10914,643 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698BEFE8-2FD7-4237-9D7E-5B3BC5330015}">
+  <dimension ref="B2:U39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" s="78"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="R5" s="78"/>
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="R9" s="78"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="R11" s="78"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="78"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C24" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="32"/>
+      <c r="I24" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="32"/>
+      <c r="N24" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="32"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C25" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="32"/>
+      <c r="I25" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="K25" s="33"/>
+      <c r="L25" s="32"/>
+      <c r="N25" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="O25" s="78" t="s">
+        <v>389</v>
+      </c>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C26" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="I26" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="N26" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O26" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="32"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C31" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="32"/>
+      <c r="J31" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="32"/>
+      <c r="P31" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="32"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C32" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="32"/>
+      <c r="J32" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="32"/>
+      <c r="P32" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q32" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="32"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C33" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="32"/>
+      <c r="J33" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="32"/>
+      <c r="P33" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="2"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C34" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="2"/>
+      <c r="J34" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/아카데미 수업내용 5월/게임 기획서/김혜령(5월).xlsx
+++ b/아카데미 수업내용 5월/게임 기획서/김혜령(5월).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\아카데미 수업내용 5월\게임 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC09F606-F63F-4EED-8610-7C2AD138F428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6882E6-C9DE-42BD-A92F-C767B2FE1FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{94D2E2B2-CE9B-4D47-BAEA-1760D6800868}"/>
   </bookViews>
@@ -3513,7 +3513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3747,9 +3747,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10550,6 +10547,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="K200:N202"/>
+    <mergeCell ref="K206:N208"/>
+    <mergeCell ref="S202:V204"/>
+    <mergeCell ref="K212:N214"/>
+    <mergeCell ref="J267:K268"/>
+    <mergeCell ref="M257:N258"/>
+    <mergeCell ref="S267:T268"/>
     <mergeCell ref="D206:G208"/>
     <mergeCell ref="Q208:T210"/>
     <mergeCell ref="J280:K281"/>
@@ -10557,13 +10561,6 @@
     <mergeCell ref="S280:T281"/>
     <mergeCell ref="D257:E258"/>
     <mergeCell ref="D270:E271"/>
-    <mergeCell ref="K200:N202"/>
-    <mergeCell ref="K206:N208"/>
-    <mergeCell ref="S202:V204"/>
-    <mergeCell ref="K212:N214"/>
-    <mergeCell ref="J267:K268"/>
-    <mergeCell ref="M257:N258"/>
-    <mergeCell ref="S267:T268"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10984,7 +10981,6 @@
       <c r="P3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="R3" s="78"/>
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
@@ -11025,7 +11021,6 @@
       <c r="P5" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="R5" s="78"/>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
@@ -11114,7 +11109,6 @@
       <c r="P9" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="R9" s="78"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
@@ -11126,7 +11120,6 @@
       <c r="H10" s="5"/>
       <c r="O10" s="4"/>
       <c r="P10" s="5"/>
-      <c r="R10" s="78"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
@@ -11144,7 +11137,6 @@
       <c r="P11" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="R11" s="78"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
@@ -11235,7 +11227,6 @@
       <c r="P15" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="R15" s="78"/>
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
@@ -11390,11 +11381,9 @@
       <c r="N25" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="O25" s="78" t="s">
+      <c r="O25" t="s">
         <v>389</v>
       </c>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
       <c r="R25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
